--- a/src/main/resources/xlsx/pcs/prList-1_2.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-1_2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB0F5F-9B08-415B-A6EB-2C0AD4B2D92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="9120"/>
+    <workbookView xWindow="1245" yWindow="2790" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -75,23 +76,6 @@
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表名单
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（党员大会选举阶段，9月18日前报党委组织部）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,11 +156,28 @@
     <t>本单位于mt在ma召开党员代表大会。共有党员mc名。应参会党员代表ec名，实参会党员代表ac名。经本单位党员代表大会选举，确定本单位参加中国共产党北京师范大学第十三次党员代表大会代表名单如下：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（党员大会选举阶段，9月18日前报党委组织部）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,11 +780,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -826,7 +827,7 @@
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -845,7 +846,7 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -928,7 +929,7 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>

--- a/src/main/resources/xlsx/pcs/prList-1_2.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-1_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB0F5F-9B08-415B-A6EB-2C0AD4B2D92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64296C58-140E-43A4-9E9C-15B648180C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="2790" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本单位于mt在ma召开党员代表大会。共有党员mc名。应参会党员代表ec名，实参会党员代表ac名。经本单位党员代表大会选举，确定本单位参加中国共产党北京师范大学第十三次党员代表大会代表名单如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（党员大会选举阶段）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -100,7 +121,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">  2017</t>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -119,7 +140,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>09</t>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -138,7 +159,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
@@ -149,27 +170,6 @@
         <charset val="134"/>
       </rPr>
       <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单位于mt在ma召开党员代表大会。共有党员mc名。应参会党员代表ec名，实参会党员代表ac名。经本单位党员代表大会选举，确定本单位参加中国共产党北京师范大学第十三次党员代表大会代表名单如下：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">title
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（党员大会选举阶段，9月18日前报党委组织部）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,7 +784,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="A6" sqref="A6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>

--- a/src/main/resources/xlsx/pcs/prList-1_2.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-1_2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64296C58-140E-43A4-9E9C-15B648180C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85639506-3D31-4760-BB51-69CBBA523FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>性别</t>
   </si>
   <si>
     <t>民族</t>
-  </si>
-  <si>
-    <t>学历</t>
   </si>
   <si>
     <t>入党时间</t>
@@ -171,6 +168,14 @@
       </rPr>
       <t>日</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,13 +414,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -463,13 +468,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -781,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,18 +802,19 @@
     <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
     <col min="8" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="8.75" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="5.625" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -824,10 +830,11 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -843,10 +850,11 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -862,55 +870,59 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -925,11 +937,12 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -945,13 +958,14 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/prList-1_2.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-1_2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85639506-3D31-4760-BB51-69CBBA523FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -34,9 +33,6 @@
     <t>入党时间</t>
   </si>
   <si>
-    <t>职别</t>
-  </si>
-  <si>
     <t>职务</t>
   </si>
   <si>
@@ -73,10 +69,6 @@
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称（盖章）：party</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,11 +170,19 @@
     <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二级党组织名称（盖章）：party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,11 +785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -834,7 +834,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -874,52 +874,52 @@
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
